--- a/south_side.xlsx
+++ b/south_side.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="358" xml:space="preserve">
   <si>
     <t>Inventory By Shop</t>
   </si>
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/26/2024 04:42 AM</t>
+      <t>12/26/2024 05:04 AM</t>
     </r>
   </si>
   <si>
@@ -68,7 +68,7 @@
       <rPr>
         <b val="0"/>
       </rPr>
-      <t>Yes</t>
+      <t>No</t>
     </r>
   </si>
   <si>
@@ -78,51 +78,462 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
     <t>Appliances</t>
   </si>
   <si>
     <t>3/4" x 18" Water Heater Supply Line</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6831555</t>
+  </si>
+  <si>
     <t>6" Drip Pan</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Dey Distributing Inc</t>
+  </si>
+  <si>
+    <t>6" GE drip pan</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>WB32X5075</t>
+  </si>
+  <si>
     <t>6" GE element</t>
   </si>
   <si>
+    <t>469-0610</t>
+  </si>
+  <si>
+    <t>Menards</t>
+  </si>
+  <si>
+    <t>6" Heating Element</t>
+  </si>
+  <si>
+    <t>8" Drip Pan</t>
+  </si>
+  <si>
+    <t>8" GE drip pan</t>
+  </si>
+  <si>
+    <t>WB32X5076</t>
+  </si>
+  <si>
     <t>8" GE element</t>
   </si>
   <si>
+    <t>469-0612</t>
+  </si>
+  <si>
+    <t>8" Heating element</t>
+  </si>
+  <si>
     <t>Refrigerator</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Archer Home Center</t>
+  </si>
+  <si>
     <t>Richmond 40 Gallon 6-Year Tall Elec Tank Water Heater</t>
   </si>
   <si>
+    <t>6835049</t>
+  </si>
+  <si>
+    <t>Menards - Kading Properties LLC</t>
+  </si>
+  <si>
+    <t>Richmond? Electric Water Heater Tune Up Kit</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6832301</t>
+  </si>
+  <si>
+    <t>Soleus Air? 18,000 BTU 230-Volt Window Air Conditioner</t>
+  </si>
+  <si>
+    <t>6235506</t>
+  </si>
+  <si>
     <t>Stove</t>
   </si>
   <si>
+    <t>Watts? 8" x 8" Spring FIT ? Access Panel</t>
+  </si>
+  <si>
+    <t>6933108</t>
+  </si>
+  <si>
     <t>Electrical</t>
   </si>
   <si>
+    <t>15-Amp 1-Pole Ivory Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 10 pk</t>
+  </si>
+  <si>
+    <t>3639850</t>
+  </si>
+  <si>
+    <t>15-Amp 1-Pole Toggle Light Switch - 10 Pack</t>
+  </si>
+  <si>
+    <t>3639863</t>
+  </si>
+  <si>
+    <t>15-Amp Ivory Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639834</t>
+  </si>
+  <si>
+    <t>15-Amp White Duplex Outlet - 10 pk</t>
+  </si>
+  <si>
+    <t>3639847</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - IVORY</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3633944</t>
+  </si>
+  <si>
+    <t>20-Amp Self-Test GFCI Outlet 3-Pack - WHITE</t>
+  </si>
+  <si>
+    <t>3633946</t>
+  </si>
+  <si>
+    <t>30-Amp 3-Wire Black Standard Flush Dryer Outlet</t>
+  </si>
+  <si>
+    <t>3633759</t>
+  </si>
+  <si>
     <t>42" White Indoor LED Ceiling Fan</t>
   </si>
   <si>
+    <t>3550712</t>
+  </si>
+  <si>
+    <t>50-Amp 3-Wire Black Flush Range Outlet</t>
+  </si>
+  <si>
+    <t>3633733</t>
+  </si>
+  <si>
+    <t>60W Soft White LED Regular Light Bulb</t>
+  </si>
+  <si>
+    <t>ct as sngl; 24-pack</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3531029</t>
+  </si>
+  <si>
+    <t>A15 APPLIANCE Light Bulbs 40-Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pk</t>
+  </si>
+  <si>
+    <t>3534371</t>
+  </si>
+  <si>
+    <t>A15 LED FAN Bulb - 60 Watt</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3530189</t>
+  </si>
+  <si>
+    <t>AA-Batteries</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5756024</t>
+  </si>
+  <si>
+    <t>Aircycler Smart Exhaust Switch</t>
+  </si>
+  <si>
+    <t>AIR SE1-W</t>
+  </si>
+  <si>
+    <t>Echo Group, Inc.</t>
+  </si>
+  <si>
+    <t>B10 FAN Light Bulbs - 60 W</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6 pk</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3538637</t>
+  </si>
+  <si>
+    <t>Blank box cap</t>
+  </si>
+  <si>
+    <t>3713417</t>
+  </si>
+  <si>
+    <t>Brass Knurled Head Screws (3-Pack)</t>
+  </si>
+  <si>
+    <t>comes in 3 pk</t>
+  </si>
+  <si>
+    <t>3456664</t>
+  </si>
+  <si>
+    <t>Cadet 30" White 500W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354001</t>
+  </si>
+  <si>
+    <t>Cadet 48" White 1000W 240V Electric Baseboard Heater</t>
+  </si>
+  <si>
+    <t>3354003</t>
+  </si>
+  <si>
+    <t>Cadet Thermostat</t>
+  </si>
+  <si>
+    <t>3354031</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Hallway only IF garage attached</t>
+  </si>
+  <si>
+    <t>3E-Electrical Engineering &amp; Equipment Company</t>
+  </si>
+  <si>
+    <t>delta vent fan</t>
+  </si>
+  <si>
+    <t>Dryer Outlet 30-Amp 4-Wire Black</t>
+  </si>
+  <si>
+    <t>3636057</t>
+  </si>
+  <si>
+    <t>Electronic Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>FireX Direct Wire Ionization Smoke Alarm</t>
+  </si>
+  <si>
+    <t>3584619</t>
+  </si>
+  <si>
+    <t>G25 VANITY Light Bulbs - 40 Watt</t>
+  </si>
+  <si>
+    <t>3533415</t>
+  </si>
+  <si>
+    <t>Hallway Light Fixture-Patriot Lighting? Amity White</t>
+  </si>
+  <si>
+    <t>3513170</t>
+  </si>
+  <si>
     <t>Ivory 20-Amp Side Wire Single Outlet</t>
   </si>
   <si>
+    <t>3632909</t>
+  </si>
+  <si>
+    <t>Kitchen Light Fixture-13" Stella White</t>
+  </si>
+  <si>
+    <t>3514207</t>
+  </si>
+  <si>
+    <t>Patriot Lighting? White Teardrop Pull Chain</t>
+  </si>
+  <si>
+    <t>for ceiling fan</t>
+  </si>
+  <si>
+    <t>3458565</t>
+  </si>
+  <si>
+    <t>Performax 9-Volt Alkaline Batteries - 6 pack</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 6-pk</t>
+  </si>
+  <si>
+    <t>5756026</t>
+  </si>
+  <si>
+    <t>Siemens? QP 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670100</t>
+  </si>
+  <si>
+    <t>Siemens? QP 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3670102</t>
+  </si>
+  <si>
+    <t>Silver Dryer outlet cover</t>
+  </si>
+  <si>
+    <t>Smart Electrican? Light Control with Photocell</t>
+  </si>
+  <si>
+    <t>3681235</t>
+  </si>
+  <si>
+    <t>Square D 15-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674640</t>
+  </si>
+  <si>
+    <t>Square D 20-Amp 1-Pole Standard Circuit Breaker</t>
+  </si>
+  <si>
+    <t>3674653</t>
+  </si>
+  <si>
+    <t>Stelpro 24" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro 48" Baseboard Heater</t>
+  </si>
+  <si>
+    <t>Stelpro Thermostat (for baseboard heater)</t>
+  </si>
+  <si>
+    <t>stelpro wall thermostat</t>
+  </si>
+  <si>
+    <t>Stove Outlet-50-Amp 4-Wire Black Flush Range</t>
+  </si>
+  <si>
+    <t>3636060</t>
+  </si>
+  <si>
+    <t>Torrino Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>3564916</t>
+  </si>
+  <si>
+    <t>Universal garage door remote</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>White 20-Amp Side Wire Single Outlet</t>
+  </si>
+  <si>
+    <t>3638974</t>
+  </si>
+  <si>
+    <t>ZZZCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE-IGNORE</t>
+  </si>
+  <si>
+    <t>3533186</t>
+  </si>
+  <si>
     <t>Zzzzdo notuse</t>
   </si>
   <si>
+    <t>ct as sngl; comes in 6 pack</t>
+  </si>
+  <si>
     <t>Zzzzzdo otuse</t>
   </si>
   <si>
     <t>Equipment</t>
   </si>
   <si>
+    <t>Chainsaws</t>
+  </si>
+  <si>
+    <t>Stihl</t>
+  </si>
+  <si>
     <t>DeWalt Light</t>
   </si>
   <si>
+    <t>Acme Tools</t>
+  </si>
+  <si>
     <t>Drill (Impact)</t>
   </si>
   <si>
@@ -132,48 +543,383 @@
     <t>Multi-Tool</t>
   </si>
   <si>
+    <t>Post Hole Diggers</t>
+  </si>
+  <si>
     <t>Push Lawn Mower</t>
   </si>
   <si>
+    <t>Salt Spreader</t>
+  </si>
+  <si>
     <t>Sawzall</t>
   </si>
   <si>
+    <t>Lowes</t>
+  </si>
+  <si>
     <t>Skillsaw</t>
   </si>
   <si>
     <t>Snow Blower</t>
   </si>
   <si>
+    <t>Snow Plow #47E &amp; 105E</t>
+  </si>
+  <si>
+    <t>Snow Shovels</t>
+  </si>
+  <si>
+    <t>Speed Bumps</t>
+  </si>
+  <si>
+    <t>Logan Contractors Supply, Inc</t>
+  </si>
+  <si>
     <t>Sprayer Backpacks</t>
   </si>
   <si>
+    <t>Weed Whips</t>
+  </si>
+  <si>
+    <t>VanWall Equipment</t>
+  </si>
+  <si>
     <t>Exterior</t>
   </si>
   <si>
+    <t>1.5"W x 36"L Steel Door Bottom Weather Strip</t>
+  </si>
+  <si>
+    <t>5674704</t>
+  </si>
+  <si>
+    <t>10 Gallon Dogipot Trashbags (1 unit =  1 box)</t>
+  </si>
+  <si>
+    <t>1 unit=1 box</t>
+  </si>
+  <si>
+    <t>16' 4" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311384</t>
+  </si>
+  <si>
+    <t>4" White Louvered Wall Vent Hood Cap</t>
+  </si>
+  <si>
+    <t>6399126</t>
+  </si>
+  <si>
+    <t>42 Gallon Wing-Tie Contractor Trash Bags</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 20-ct</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6485275</t>
+  </si>
+  <si>
+    <t>4x4 slider</t>
+  </si>
+  <si>
+    <t>Gilcrest Jewett Lumber Company</t>
+  </si>
+  <si>
+    <t>5" White Wall Vent Hood Pest Barricade</t>
+  </si>
+  <si>
+    <t>6399429</t>
+  </si>
+  <si>
+    <t>5x4 slider</t>
+  </si>
+  <si>
     <t>81" Foam Replacement Door Seal - BEIGE</t>
   </si>
   <si>
+    <t>4366468</t>
+  </si>
+  <si>
+    <t>9' 2" Bottom Weatherstrip for Garage Doors</t>
+  </si>
+  <si>
+    <t>4311371</t>
+  </si>
+  <si>
+    <t>Ac trim</t>
+  </si>
+  <si>
+    <t>Outside trim for Ac</t>
+  </si>
+  <si>
+    <t>142-3100</t>
+  </si>
+  <si>
+    <t>Address #0</t>
+  </si>
+  <si>
+    <t>Address #1</t>
+  </si>
+  <si>
+    <t>Address #2</t>
+  </si>
+  <si>
+    <t>Address #3</t>
+  </si>
+  <si>
+    <t>Address #4</t>
+  </si>
+  <si>
+    <t>Address #5</t>
+  </si>
+  <si>
+    <t>Address #6</t>
+  </si>
+  <si>
+    <t>Address #7</t>
+  </si>
+  <si>
+    <t>Address #8</t>
+  </si>
+  <si>
+    <t>Address #9</t>
+  </si>
+  <si>
+    <t>Crestline 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Window screen</t>
+  </si>
+  <si>
+    <t>Bill's Windows &amp; Screens</t>
+  </si>
+  <si>
+    <t>Crestline 5' Window Screen</t>
+  </si>
+  <si>
+    <t>Garage Door Rolled Steel Lift Handles</t>
+  </si>
+  <si>
+    <t>ct as sngl; comes in 2 pack
+</t>
+  </si>
+  <si>
+    <t>4311444</t>
+  </si>
+  <si>
+    <t>Garage Door Sliding Interior Side Lock</t>
+  </si>
+  <si>
+    <t>4311428</t>
+  </si>
+  <si>
+    <t>Jeld Wen 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Jeld Wen 5' Window Screen30</t>
+  </si>
+  <si>
+    <t>Jelly Jar Black Outdoor Wall Light</t>
+  </si>
+  <si>
+    <t>3565001</t>
+  </si>
+  <si>
+    <t>Jelly Jar replacement globes</t>
+  </si>
+  <si>
+    <t>LH Service door</t>
+  </si>
+  <si>
+    <t>4140337</t>
+  </si>
+  <si>
     <t>Master key locking mechanisms (deadbolts)</t>
   </si>
   <si>
+    <t>Security Equipment, Inc.</t>
+  </si>
+  <si>
+    <t>Mastercraft LH Front Door</t>
+  </si>
+  <si>
+    <t>4140357</t>
+  </si>
+  <si>
+    <t>Mastercraft RH Front Door</t>
+  </si>
+  <si>
+    <t>4140356</t>
+  </si>
+  <si>
+    <t>Plastic Universal outlet cover-clear</t>
+  </si>
+  <si>
+    <t>RH Service door</t>
+  </si>
+  <si>
+    <t>4140336</t>
+  </si>
+  <si>
+    <t>Small Pick-up Dogipot Bags  (1 unit =  1 roll)</t>
+  </si>
+  <si>
+    <t>Windsor 4' Window Screen</t>
+  </si>
+  <si>
+    <t>Windsor 5' Window Screen</t>
+  </si>
+  <si>
     <t>Interior Decor</t>
   </si>
   <si>
+    <t>1 x 12 x 6' Standard Pine Board (Cabinets)</t>
+  </si>
+  <si>
+    <t>Pine board</t>
+  </si>
+  <si>
+    <t>1031405</t>
+  </si>
+  <si>
+    <t>3-1/4" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316042</t>
+  </si>
+  <si>
+    <t>5" Textured White Wall Protector Plate</t>
+  </si>
+  <si>
+    <t>4316054</t>
+  </si>
+  <si>
+    <t>6 panel LH Interior Door</t>
+  </si>
+  <si>
+    <t>4112597</t>
+  </si>
+  <si>
+    <t>6 panel RH Interior Door</t>
+  </si>
+  <si>
+    <t>4112596</t>
+  </si>
+  <si>
     <t>Brass Bed &amp; Bath Privacy Door Knob</t>
   </si>
   <si>
+    <t>2218421</t>
+  </si>
+  <si>
+    <t>Brass Hall &amp; Closet Passage Door Knob</t>
+  </si>
+  <si>
+    <t>2218434</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Paper Holder</t>
+  </si>
+  <si>
+    <t>6751654</t>
+  </si>
+  <si>
     <t>Concrete Floor Paint</t>
   </si>
   <si>
+    <t>5512344</t>
+  </si>
+  <si>
     <t>Inside AC trim</t>
   </si>
   <si>
+    <t>Trim for inside A/C</t>
+  </si>
+  <si>
+    <t>103-7010</t>
+  </si>
+  <si>
+    <t>Ivory 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>ct as sngl - comes in 10 pk
+</t>
+  </si>
+  <si>
+    <t>3712324</t>
+  </si>
+  <si>
+    <t>Ivory Duplex Outlet Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712308</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>5412091</t>
+  </si>
+  <si>
+    <t>Round White Plastic Toilet Seat</t>
+  </si>
+  <si>
+    <t>6764300</t>
+  </si>
+  <si>
+    <t>Satin Nickel hall &amp; closet door knob</t>
+  </si>
+  <si>
+    <t>2218720</t>
+  </si>
+  <si>
+    <t>Satin nickel lock set for bathroom</t>
+  </si>
+  <si>
+    <t>2218721</t>
+  </si>
+  <si>
+    <t>White 1 Toggle Switch Wall Plate 10 Pack</t>
+  </si>
+  <si>
+    <t>3712337</t>
+  </si>
+  <si>
+    <t>White Duplex Outlet Wall Plate- 10 pk</t>
+  </si>
+  <si>
+    <t>3712311</t>
+  </si>
+  <si>
+    <t>White Globe Replacement Glass with 3-1/4"</t>
+  </si>
+  <si>
+    <t>3451973</t>
+  </si>
+  <si>
     <t>White Toilet Paper Holder Roller</t>
   </si>
   <si>
+    <t>6752200</t>
+  </si>
+  <si>
+    <t>White/Ivory Rotary Dimmer Replacement Knobs</t>
+  </si>
+  <si>
+    <t>3715730</t>
+  </si>
+  <si>
     <t>Zzzdonot use</t>
   </si>
   <si>
+    <t>Inside trim for Ac</t>
+  </si>
+  <si>
     <t>Zzzzdo not use</t>
   </si>
   <si>
@@ -183,28 +929,205 @@
     <t>1-1/2" - 2" Rubber Bathtub Drain Stopper</t>
   </si>
   <si>
+    <t>6799739</t>
+  </si>
+  <si>
+    <t>1-Spray Chrome Fixed Mount Showerhead</t>
+  </si>
+  <si>
+    <t>6781269</t>
+  </si>
+  <si>
+    <t>1/2 coupler for quick connector</t>
+  </si>
+  <si>
+    <t>1/2 coupler</t>
+  </si>
+  <si>
+    <t>680-9810</t>
+  </si>
+  <si>
+    <t>1/2 female connector for shower valve</t>
+  </si>
+  <si>
+    <t>680-9568</t>
+  </si>
+  <si>
+    <t>2" Replacement Toilet Flush Valve</t>
+  </si>
+  <si>
+    <t>6642019</t>
+  </si>
+  <si>
+    <t>3" toilet flapper</t>
+  </si>
+  <si>
+    <t>6641516</t>
+  </si>
+  <si>
     <t>5/16" x 3-1/2" Brass Toilet Flange Bolts</t>
   </si>
   <si>
+    <t>6641300</t>
+  </si>
+  <si>
+    <t>Air Ventilator Motor Kit</t>
+  </si>
+  <si>
+    <t>angle valve for washer</t>
+  </si>
+  <si>
+    <t>680-9584</t>
+  </si>
+  <si>
+    <t>Bathroom Sink Faucet</t>
+  </si>
+  <si>
+    <t>6739543</t>
+  </si>
+  <si>
+    <t>Bronze Pop-Up Bathroom Sink Drain Stopper</t>
+  </si>
+  <si>
+    <t>6795388</t>
+  </si>
+  <si>
     <t>Chrome Pop-Up Bathroom Sink Drain</t>
   </si>
   <si>
+    <t>6795416</t>
+  </si>
+  <si>
+    <t>Chrome Toilet Tank Lever with Metal Arm</t>
+  </si>
+  <si>
+    <t>6640817</t>
+  </si>
+  <si>
+    <t>DUAL THRD AERATOR 2.2GPM</t>
+  </si>
+  <si>
+    <t>24-89576</t>
+  </si>
+  <si>
+    <t>Home Depot Pro</t>
+  </si>
+  <si>
+    <t>Fluidmaster? 400A Universal Toilet Fill Valve</t>
+  </si>
+  <si>
+    <t>6640338</t>
+  </si>
+  <si>
+    <t>Korky? Plus Toilet Flapper</t>
+  </si>
+  <si>
+    <t>6641420</t>
+  </si>
+  <si>
     <t>KTCHN FAUCET W/ 2 HDL CHR LF</t>
   </si>
   <si>
+    <t>35-52592</t>
+  </si>
+  <si>
+    <t>Plumb Works Bathroom Sink Drain Clevis Clips</t>
+  </si>
+  <si>
+    <t>6791369</t>
+  </si>
+  <si>
     <t>Plumb Works? 6" Shower Arm with Flange</t>
   </si>
   <si>
+    <t>6784373</t>
+  </si>
+  <si>
     <t>Plumb Works? Chrome Diverter Tub Spout</t>
   </si>
   <si>
+    <t>6790336</t>
+  </si>
+  <si>
+    <t>Premier Hot &amp; Cold buttons</t>
+  </si>
+  <si>
+    <t>set of 2</t>
+  </si>
+  <si>
+    <t>13-3863</t>
+  </si>
+  <si>
+    <t>ProLine 3/8" PVC Toilet Supply Line</t>
+  </si>
+  <si>
+    <t>6640137</t>
+  </si>
+  <si>
     <t>replacement faucet handle</t>
   </si>
   <si>
+    <t>263727</t>
+  </si>
+  <si>
+    <t>HD Supply</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Flange Repair Kit</t>
+  </si>
+  <si>
+    <t>6642365</t>
+  </si>
+  <si>
+    <t>Replacement Toilet Tank-to-Bowl Kit</t>
+  </si>
+  <si>
+    <t>6641311</t>
+  </si>
+  <si>
+    <t>Shower/Bath Faucet Set</t>
+  </si>
+  <si>
+    <t>6736000</t>
+  </si>
+  <si>
     <t>Sink Supply Line</t>
   </si>
   <si>
+    <t>6794361</t>
+  </si>
+  <si>
+    <t>Stainless Steel Kitchen Sink Strainer Basket KIT</t>
+  </si>
+  <si>
+    <t>6791164</t>
+  </si>
+  <si>
+    <t>Tuscany Toilet</t>
+  </si>
+  <si>
+    <t>6704575</t>
+  </si>
+  <si>
+    <t>Universal Kitchen Sink Strainer-Basket ONLY</t>
+  </si>
+  <si>
+    <t>6791110</t>
+  </si>
+  <si>
+    <t>ZZZOateyCANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>CANNOT DELETE - IGNORE</t>
+  </si>
+  <si>
+    <t>6641269</t>
+  </si>
+  <si>
     <t>zzzzzzdo not use</t>
+  </si>
+  <si>
+    <t>6641298</t>
   </si>
   <si>
     <t>Total</t>
@@ -214,11 +1137,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt formatCode="yyyy/mm/dd" numFmtId="100"/>
     <numFmt formatCode="yyyy/mm/dd hh:mm:ss" numFmtId="101"/>
+    <numFmt formatCode="#,##0.00;[Red]\-#,##0.00" numFmtId="102"/>
+    <numFmt formatCode="#,##0.00;[Red]\-#,##0.00" numFmtId="103"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
@@ -246,6 +1171,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF303030"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <color rgb="FF303030"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <b val="1"/>
       <name val="Arial"/>
       <family val="1"/>
       <color rgb="FF303030"/>
@@ -324,7 +1262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -340,6 +1278,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="102" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="103" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -354,14 +1294,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showRuler="1" showWhiteSpace="0" showZeros="1" tabSelected="0" windowProtection="0" showOutlineSymbols="1" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col width="20.166666666666668" min="1" max="1" bestFit="1" customWidth="1"/>
-    <col width="67.2" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="68.39999999999999" min="2" max="2" bestFit="1" customWidth="1"/>
+    <col width="40.8" min="3" max="3" bestFit="1" customWidth="1"/>
+    <col width="21.45" min="4" max="4" bestFit="1" customWidth="1"/>
+    <col width="19.5" min="5" max="5" bestFit="1" customWidth="1"/>
+    <col width="13.65" min="6" max="6" bestFit="1" customWidth="1"/>
+    <col width="27.3" min="7" max="7" bestFit="1" customWidth="1"/>
+    <col width="57.599999999999994" min="8" max="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -369,38 +1315,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -409,320 +1397,4146 @@
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
+      <c r="F16" s="9" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>17</v>
+      <c r="F17" s="9" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>647.35</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>437.63</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>534.99</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>51</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>32.07</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="9" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>41</v>
+      <c r="F37" s="9" t="n">
+        <v>91.58</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>42</v>
+        <v>85</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>43</v>
+        <v>89</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>91</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>45</v>
+      <c r="F41" s="9" t="n">
+        <v>52.42</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>46</v>
+      <c r="F42" s="9" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>47</v>
+      <c r="F43" s="9" t="n">
+        <v>34.23</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>43.85</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46"/>
+      <c r="F45" s="9" t="n">
+        <v>100.33</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="8"/>
+      <c r="A47" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F68" s="9" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="9" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>352.03</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="9" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="9" t="n">
+        <v>171.19</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="9" t="n">
+        <v>95.23</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="9" t="n">
+        <v>191.53</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="9" t="n">
+        <v>255.73</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="9" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="9" t="n">
+        <v>170.13</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="9" t="n">
+        <v>191.53</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="9" t="n">
+        <v>576.73</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="9" t="n">
+        <v>1599.0</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="7"/>
+      <c r="D84" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="9" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="9" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="9" t="n">
+        <v>267.49</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="9" t="n">
+        <v>95.23</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="7"/>
+      <c r="D87" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="9" t="n">
+        <v>255.73</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="9" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="9" t="n">
+        <v>37.17</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="9" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="9" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="9" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" s="9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="9" t="n">
+        <v>235.56</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="7"/>
+      <c r="D94" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="9" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="7"/>
+      <c r="D95" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="9" t="n">
+        <v>266.75</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="7"/>
+      <c r="D96" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="9" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F97" s="9" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" s="9" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="9" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F100" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F107" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" s="9" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D111" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F112" s="9" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D114" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" s="9" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="9" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="9" t="n">
+        <v>272.85</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="9" t="n">
+        <v>55.64</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="9" t="n">
+        <v>373.43</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" s="9" t="n">
+        <v>373.43</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122" s="9" t="n">
+        <v>272.85</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" s="9" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D124" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" s="9" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D125" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="9" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D126" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F126" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F127" s="9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F128" s="9" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F129" s="9" t="n">
+        <v>127.33</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F130" s="9" t="n">
+        <v>127.33</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="9" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="9" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F132" s="9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F133" s="9" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" s="9" t="n">
+        <v>46.86</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D135" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D136" s="9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D137" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F138" s="9" t="n">
+        <v>25.67</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F139" s="9" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="9" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F141" s="9" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D142" s="9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" s="9" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D143" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" s="9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="9" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F145" s="9" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="9" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D147" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" s="9" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F148" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F149" s="9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="9" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D151" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="9" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F152" s="9" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C153" s="7"/>
+      <c r="D153" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F153" s="9" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" s="7"/>
+      <c r="D154" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F154" s="9" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C155" s="7"/>
+      <c r="D155" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F155" s="9" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C156" s="7"/>
+      <c r="D156" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F156" s="9" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="9" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C158" s="7"/>
+      <c r="D158" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" s="9" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C160" s="7"/>
+      <c r="D160" s="9" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F160" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F161" s="9" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D162" s="9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F162" s="9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C163" s="7"/>
+      <c r="D163" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="9" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D164" s="9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F164" s="9" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="9" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D166" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F166" s="9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" s="7"/>
+      <c r="D167" s="9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F167" s="9" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C168" s="7"/>
+      <c r="D168" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F168" s="9" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D169" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F170" s="9" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F172" s="9" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F173" s="9" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F174" s="9" t="n">
+        <v>73.83</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C175" s="7"/>
+      <c r="D175" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C176" s="7"/>
+      <c r="D176" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F176" s="9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" s="9" t="n">
+        <v>105.93</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C178" s="7"/>
+      <c r="D178" s="9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D179" s="9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179" s="9" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C180" s="7"/>
+      <c r="D180" s="9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F180" s="9" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181"/>
+    <row r="182">
+      <c r="A182" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="10" t="n">
+        <v>1017.0</v>
+      </c>
+      <c r="E182" s="8"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="7">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>

--- a/south_side.xlsx
+++ b/south_side.xlsx
@@ -26,7 +26,7 @@
         <b val="0"/>
         <sz val="9"/>
       </rPr>
-      <t>12/26/2024 05:04 AM</t>
+      <t>01/07/2025 08:52 PM</t>
     </r>
   </si>
   <si>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>18</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="n">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>18</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1825,7 +1825,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="9" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>21</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="9" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>21</v>
@@ -2275,7 +2275,7 @@
         <v>101</v>
       </c>
       <c r="D44" s="9" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>21</v>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="9" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>107</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="9" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>18</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="9" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>40</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>15</v>
@@ -3483,7 +3483,7 @@
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="9" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>21</v>
@@ -4177,7 +4177,7 @@
         <v>241</v>
       </c>
       <c r="D126" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>107</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>40</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>107</v>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>40</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>40</v>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="C156" s="7"/>
       <c r="D156" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E156" s="7" t="s">
         <v>107</v>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="9" t="n">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>40</v>
@@ -5107,7 +5107,7 @@
         <v>58</v>
       </c>
       <c r="D164" s="9" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>107</v>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="9" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>15</v>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E167" s="7" t="s">
         <v>40</v>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>107</v>
@@ -5231,7 +5231,7 @@
         <v>331</v>
       </c>
       <c r="D169" s="9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>15</v>
@@ -5279,7 +5279,7 @@
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="9" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>15</v>
@@ -5375,7 +5375,7 @@
       </c>
       <c r="C175" s="7"/>
       <c r="D175" s="9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>15</v>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="9" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>107</v>
@@ -5520,7 +5520,7 @@
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="10" t="n">
-        <v>1017.0</v>
+        <v>1043.0</v>
       </c>
       <c r="E182" s="8"/>
       <c r="F182" s="10"/>
